--- a/大三2/数据库/she2.xlsx
+++ b/大三2/数据库/she2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="8655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,33 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>brithday</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>cellphone</t>
+  </si>
+  <si>
+    <t>institue_id</t>
+  </si>
   <si>
     <t>李明</t>
   </si>
@@ -60,6 +81,15 @@
     <t>浙江</t>
   </si>
   <si>
+    <t>institue_name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>计算机学院</t>
   </si>
   <si>
@@ -78,6 +108,15 @@
     <t>上大东校区四号楼</t>
   </si>
   <si>
+    <t>work_id</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
     <t>陈迪茂</t>
   </si>
   <si>
@@ -96,6 +135,18 @@
     <t>教授</t>
   </si>
   <si>
+    <t>crouse_id</t>
+  </si>
+  <si>
+    <t>crouse_name</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
     <t>离散数学</t>
   </si>
   <si>
@@ -111,6 +162,12 @@
     <t>分子物理学</t>
   </si>
   <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>crouse_time</t>
+  </si>
+  <si>
     <t>2012-2013秋季</t>
   </si>
   <si>
@@ -135,88 +192,33 @@
     <t>星期一5-8</t>
   </si>
   <si>
+    <t>score_p</t>
+  </si>
+  <si>
+    <t>score_k</t>
+  </si>
+  <si>
+    <t>score_f</t>
+  </si>
+  <si>
     <t>2013-2014冬季</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>xh</t>
-  </si>
-  <si>
-    <t>xm</t>
-  </si>
-  <si>
-    <t>xb</t>
-  </si>
-  <si>
-    <t>csrq</t>
-  </si>
-  <si>
-    <t>jg</t>
-  </si>
-  <si>
-    <t>sjhm</t>
-  </si>
-  <si>
-    <t>yxh</t>
-  </si>
-  <si>
-    <t>mc</t>
-  </si>
-  <si>
-    <t>dz</t>
-  </si>
-  <si>
-    <t>lxdh</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>xl</t>
-  </si>
-  <si>
-    <t>jbgz</t>
-  </si>
-  <si>
-    <t>kh</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>xf</t>
-  </si>
-  <si>
-    <t>xs</t>
-  </si>
-  <si>
-    <t>xq</t>
-  </si>
-  <si>
-    <t>sksj</t>
-  </si>
-  <si>
-    <t>pscj</t>
-  </si>
-  <si>
-    <t>kscj</t>
-  </si>
-  <si>
-    <t>zpcj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -224,26 +226,355 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,9 +582,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -271,11 +844,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -284,7 +904,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -563,39 +1183,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="28.5" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -604,16 +1225,16 @@
         <v>1101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>34034</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>13613005486</v>
@@ -628,16 +1249,16 @@
         <v>1102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>33946</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>18913457890</v>
@@ -652,16 +1273,16 @@
         <v>1103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>33974</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>18826490423</v>
@@ -676,16 +1297,16 @@
         <v>1104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>34644</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>13331934111</v>
@@ -700,16 +1321,16 @@
         <v>1105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>33396</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>18015872567</v>
@@ -724,16 +1345,16 @@
         <v>1106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>34093</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>18107620945</v>
@@ -748,16 +1369,16 @@
         <v>1107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>33832</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>13912341078</v>
@@ -778,76 +1399,77 @@
       <c r="H9" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="28.5" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" ht="28.5" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>65347567</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5">
+    <row r="3" ht="28.5" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>65341234</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
+    <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>65347890</v>
@@ -862,42 +1484,43 @@
       <c r="E5" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G7" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="28.5" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -905,16 +1528,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>26729</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1">
         <v>3567</v>
@@ -928,16 +1551,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>26641</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>2845</v>
@@ -951,16 +1574,16 @@
         <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>21920</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1">
         <v>4200</v>
@@ -970,36 +1593,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="28.5" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1007,7 +1631,7 @@
         <v>8305001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -1019,12 +1643,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5">
+    <row r="3" ht="28.5" spans="1:5">
       <c r="A3" s="1">
         <v>8305002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -1041,7 +1665,7 @@
         <v>8305003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1058,7 +1682,7 @@
         <v>8305004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -1070,12 +1694,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5">
+    <row r="6" ht="28.5" spans="1:5">
       <c r="A6" s="1">
         <v>8301001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -1088,38 +1712,39 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="28.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="25.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>8305001</v>
@@ -1128,12 +1753,12 @@
         <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="25.5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>8305002</v>
@@ -1142,12 +1767,12 @@
         <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>8305002</v>
@@ -1156,12 +1781,12 @@
         <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>8305002</v>
@@ -1170,12 +1795,12 @@
         <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>8305003</v>
@@ -1184,12 +1809,12 @@
         <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>8305004</v>
@@ -1198,12 +1823,12 @@
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>8305001</v>
@@ -1212,54 +1837,55 @@
         <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="28.5" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5">
+    </row>
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>8305001</v>
@@ -1277,12 +1903,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5">
+    <row r="3" ht="28.5" spans="1:7">
       <c r="A3" s="1">
         <v>1102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>8305001</v>
@@ -1300,12 +1926,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5">
+    <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="1">
         <v>1102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>8305002</v>
@@ -1323,12 +1949,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" ht="28.5" spans="1:7">
       <c r="A5" s="1">
         <v>1102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <v>8305004</v>
@@ -1336,22 +1962,16 @@
       <c r="D5" s="1">
         <v>101</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" ht="28.5" spans="1:7">
       <c r="A6" s="1">
         <v>1103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>8305001</v>
@@ -1369,12 +1989,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5">
+    <row r="7" ht="28.5" spans="1:7">
       <c r="A7" s="1">
         <v>1103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>8305002</v>
@@ -1392,12 +2012,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5">
+    <row r="8" ht="28.5" spans="1:7">
       <c r="A8" s="1">
         <v>1103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1">
         <v>8305003</v>
@@ -1415,12 +2035,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
+    <row r="9" ht="28.5" spans="1:7">
       <c r="A9" s="1">
         <v>1103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
         <v>8305001</v>
@@ -1428,22 +2048,16 @@
       <c r="D9" s="1">
         <v>102</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" ht="28.5" spans="1:7">
       <c r="A10" s="1">
         <v>1103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
         <v>8305004</v>
@@ -1451,22 +2065,16 @@
       <c r="D10" s="1">
         <v>101</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="28.5" spans="1:7">
       <c r="A11" s="1">
         <v>1104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>8305001</v>
@@ -1484,12 +2092,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.5">
+    <row r="12" ht="28.5" spans="1:7">
       <c r="A12" s="1">
         <v>1104</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1">
         <v>8302001</v>
@@ -1497,22 +2105,16 @@
       <c r="D12" s="1">
         <v>201</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" ht="28.5" spans="1:7">
       <c r="A13" s="1">
         <v>1106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <v>8305001</v>
@@ -1530,12 +2132,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.5">
+    <row r="14" ht="28.5" spans="1:7">
       <c r="A14" s="1">
         <v>1106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>8305002</v>
@@ -1553,12 +2155,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5">
+    <row r="15" ht="28.5" spans="1:7">
       <c r="A15" s="1">
         <v>1107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
         <v>8305001</v>
@@ -1576,12 +2178,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5">
+    <row r="16" ht="28.5" spans="1:7">
       <c r="A16" s="1">
         <v>1107</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>8305003</v>
@@ -1599,12 +2201,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25.5">
+    <row r="17" ht="28.5" spans="1:7">
       <c r="A17" s="1">
         <v>1107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1">
         <v>8305004</v>
@@ -1612,18 +2214,12 @@
       <c r="D17" s="1">
         <v>101</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>